--- a/data/spring-cloud-shop/shop-elasticsearch-api_structure.xlsx
+++ b/data/spring-cloud-shop/shop-elasticsearch-api_structure.xlsx
@@ -318,49 +318,49 @@
     <t>goodsService</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>ids</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>userOrderService</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>spuId</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>gcsId</t>
+  </si>
+  <si>
+    <t>goodsPropertyGroupId</t>
+  </si>
+  <si>
+    <t>goodsType</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>goodsPropertyGroupId</t>
-  </si>
-  <si>
-    <t>gcsId</t>
-  </si>
-  <si>
     <t>publishStatus</t>
-  </si>
-  <si>
-    <t>spuId</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>goodsType</t>
-  </si>
-  <si>
-    <t>unit</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -4213,7 +4213,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -4221,13 +4221,13 @@
         <v>44</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -4235,7 +4235,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>25</v>
@@ -4249,13 +4249,13 @@
         <v>50</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -4297,7 +4297,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -4305,13 +4305,13 @@
         <v>55</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -4319,13 +4319,13 @@
         <v>55</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -4333,7 +4333,7 @@
         <v>55</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>25</v>
@@ -4347,13 +4347,13 @@
         <v>55</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>25</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -4367,7 +4367,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -4409,7 +4409,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
@@ -4423,7 +4423,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -4437,7 +4437,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
